--- a/test.xlsx
+++ b/test.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
